--- a/telegram-data-scraping/output.xlsx
+++ b/telegram-data-scraping/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,203 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>מה לא יעשו כדי להלבין את הרשות הפלסטינית.
+הכתבת לענייני ערבים נורית יוחנן טוענת שהזרוע הצבאית של פת"ח בטולכרם "נלחמת" במנגנוני הביטחון. 
+לא חושב שיש מישהו שקונה את ההבלים הללו, אך אפילו לא צריך ללכת רחוק כדי להפריך אותם. 
+זוכרים את המבצע הגדול בטולכרם שהתרחש לפני כחודש בו חוסלו 12 מחבלים מגדודי חללי אלאקצא והג'יהאד האיסלאמי? נחשו מי הגיעו לנחם אותם.
+ראשונה הגיעה בראש "אימהות שהידים" מג'נין רנא אלחולי ראש מחלקת התקשורת בביטחון הלאומי - המקבילה הפלסטינית של דובר צה"ל, לנחם את משפחות המחבלים שחוסלו.
+אחריה הגיעו עוד ועוד משלחות של קצינים בכירים במנגנונים לאוהל ההזדהות שנפתח במחנה טולכרם לכבודם של ה"שהידים".
+אלחולי, אגב, היא בעצמה דודתו של מחבל מגדודי חללי אלאקצא בטולכרם שחוסל לפני כשנה שאביו שירת אף הוא במנגנונים.
+תאמינו לי, הלוואי עלינו "מלחמות" כאלה..</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>99206</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>חילופי אש בטול כרם הערבים מדווחים על 2 מחבלים פצועים מירי 1 מהם ב"ה במצב קשה
+מחבל נוסף פצוע בבית לחם</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>99117</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>בצל המלחמה: באונ' ת"א ציינו סטודנטים ערבים ויהודים את יום הנכבה, הניפו דגלי אש"ף וקראו נגד מדינת ישראל.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>99094</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>לטענת הערבים ימ"ש 
+רק מחבל אחד חוסל מאש כוחות צה"ל 
+בהתפרעויות סמוך לבית אל 
+כן ירבו</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>99015</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>התמונות האלה לא מאירופה, לא מהקמפוסים בארה"ב, לא מרמאללה ואפילו לא ממזרח ירושלים.
+זה צולם בשדות קיבוץ מגידו, כן כן, אתם שומעים נכון. ולא מדובר רק על ערבים "ישראלים", אלא על יהודים אנשי 0מאל קיצוניים, לוגמי מקיאטו שמאוהבים באויב, שאשכרה יום אחרי יום הזכרון  צועדים עם דגלי מוות ליהודים, ואיתם אויבי ישראל בתחפושת של חרדים מנטורי קרטא  קוראים לזכות השיבה (השמדת ישראל), שרים שירי הלל לשאהידים ומעודדים את המאבק בישראל ובצה"ל.
+אני קורא מכאן לממשלה שלנו לגדל זוג ביצים ולשלול לכל המשתתפים ללא הבדל של דת
+בשוויון מוחלט את האזרחות 
+תמיד אני נזכר שסבא שלי היה מספר לי על היהודים שעזרו והעריצו את הנאצים. היום אני מבין על מה הוא דיבר. אני מודה לה' שהוא כבר לא כאן לראות את זה.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>98905</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>הדיקטטורה של בג"צ והדמוקרטיה ההרסנית בישראל הם שבישלו לנו את #פרעות_תשפא והם שיבשלו לנו את העתיד עם #האויב_שבתוכינו.
+בתיעוד: תושבים ערבים מהצפון שעדיין לא השיגו נשקים.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>98893</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>בכול תולדות מלחמות ישראל יש רק ניצחון אחד שהצליח לנו – מלחמת העצמאות.
+והסיבה שזה הצליח לנו זה משום שעשינו מה שהיינו צריכים לעשות ולא דיברנו על "היום שאחרי".
+כבשנו שטחים שלא ניתנו לנו בתוכנית החלוקה, הנחנו לערבים שהיו בהם לברוח, סיפחנו אותם, והקמנו עליהם יישובים יהודיים. אם היו שואלים את בן גוריון מראש מה התוכנית שלו ליום שאחרי, והוא היה מספר את זה, זה לא היה קורה. כי כל העולם ואשתו היו מתגייסים למנוע מאיתנו את זה. אבל זה קרה.
+אז אם מישהו שואל אתכם מה התוכנית שלכם ליום שאחרי, תענו לו כמו ויקטור חלפון: "מה שעשינו ב-48".
+יום עצמאות שמח עם ישראל.</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>98878</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>חודש לאחר רצח הנער בנימין אחימאיר הי"ד ע"י מחבלים מהכפר דומא וצה"ל עדיין לא יצא לפעולת נקם וענישה כנגד כפר המרצחים דומא למעט מעצרו של המחבל הרוצח .
+בנימין זה נרצח 1 וכפי שהסברתי לכם 2000 פעם, אחד פה אחד שם זה כנראה מתקבל על הדעת אצל מקבלי ההחלטות.
+המציאות מוכיחה שמי ששותק על רצח יהודים בבודדים יקבל טבח המוני של יהודים בעתיד!
+בחודש האחרון צה"ל היה חייב לפעול בית בית בכפר המרצחים דומא לבצע מעצרים ולנקות את האזור ממחבלים ואמל"ח. 
+משלא פעל ומהפחד שאולי יפעל בהמשך ובניסיון לסכל זאת, הלילה בוצעה פרובוקציה בדומא שככל הנראה תמנע את פעולת צה"ל בכפר.
+פרובוקציה שהיחידים שיש להם אינטרס לבצע אותה אלו הם ה0מאלנים האנרכיסטים ו"פעילי שלום" ערבים.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>98597</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>הערבים מדווחים על 9 מחבלים שחוסלו בתקיפה בצפון העיר רפיח.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>98579</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>אלישע ירד: עד שמערכת הביטחון פה לא תתעורר הטרור המטורף הזה רק ילך ויתגבר.
+בליל השבת הציתו מחבלים ערבים שריפת ענק בין הגבעה של סקאלי בסמוך לאלון מורה - לבקעת הירדן.
+אלפים רבים (אולי אפילו מעבר לזה) של דונמים של שטחי מרעה נשרפו כליל, ומאות(!) מתנדבים מהישובים והגבעות באזור נאבקו במשך שעות בלהבות במהלך ליל השבת.
+בשעות אחר הצהרים הציתו ערבים שריפה נוספת בשטחי מרעה בסמוך לישוב מעלה אפרים שכובתה גם היא בידי תושבים. 
+עד כה לא דווח על מחבלים כלשהם שנעצרו בחשד לאף אחת משורת ההצתות שהתרחשו בשבוע האחרון.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>98554</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#עזה | משעות הלילה של יום שישי ועד לשעה זו חיל האויר בגלי תקיפות עוצמתיים בצפון הרצועה על שכונות ג'אבליה אל סברה וזייתון.
+הערבים מדווחים על עשרות מחבלים מחוסלים ופצועים ועל מאות מבנים שנפגעו בתקיפות.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>98543</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>כעבור שעות ארוכות פוצץ בידי חבלנים מטען רסס שהטמינו ערבים במזבח יהושע. 
+מדובר במטען תקני שיועד להפעלה על המתפללים מרחוק באמצעות סלולרי. מהפיצוץ המבוקר נגרם נזק לאבנים מחומת המזבח.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>98461</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>עונת ההצתות נפתחה רשמית בבנימין לפני כשבועיים עם הצתות חוזרות ונישנות של שטחי המרעה בחוות רימונים. כעת נפתחה גם בשומרון כשדווח שערבים הציתו שריפה במספר מוקדים בין הכפר עצירא אל קיבלייה לישוב יצהר (בתיעוד) כוחות כיבוי, צבא ותושבים במקום מכבים את השריפה</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98382</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>בחסות היעדר הנוכחות היהודית: מטען חבלה הוטמן במזבח יהושע בן נון
+פעילים מפורום מאבק על כל דונם שהגיעו הבוקר כמדי יום שישי לתפילת שחרית במזבח יהושע בהר עיבל, גילו באמצע התפילה מטען חבלה שהוטמן מבעוד מועד בידי מחבלים בין אבני המזבח. כוחות גדולים הוקפצו למקום ביניהם חבלן שפועל לנטרול המטען. "צו השעה הוא נוכחות יהודית ברכס, בלי זה נאבד את השליטה במקום"
+מאמצי ההשתלטות הערבית בהר עיבל: פעילים מפורום מאבק על כל דונם שהגיעו הבוקר כמדי יום שישי לתפילת שחרית במזבח יהושע בהר עיבל, גילו לתדהמתם באמצע התפילה מטען חבלה שהוטמן מבעוד מועד בין אבני המזבח.
+המטען שמסתמן כרגע כמטען חריג ורב עוצמה, יועד ככל הנראה להתפוצץ על המבקרים במקום. כוחות גדולים הוזעקו למקום ביניהם חבלן שפועל לנטרול המטען.
+בפורום מאבק על כל דונם שעוקב מקרוב כבר תקופה ארוכה אחר המצב בהר עיבל ומזבח יהושע, אומרים כי המטען הבוקר הוא תוצאה ישירה של היעדר הנוכחות היהודית בהר: "מטען החבלה שחיכה לפעילים הבוקר המחשה נוספת להפקרות שמתרחשת בשטח ההר בחסות היעדר הנוכחות היהודית".
+"מאז פינוי החווה היהודית ששמרה על הרכס מאמצי ההשתלטות של הרשות הפלסטינית וערביי האזור רק הלכו והתגברו. מספר פגיעות, חלקן אנושות התרחשו במזבח, כבישים חדשים נסללו ומבנים ערבים חדשים בהר נבנו. כיום, בצילה של תוכנית בנייה מתקדמת שתכלול בין השאר את שטח המזבח עצמו הטמינו מחבלים מטען חבלה במקום כדי לפגוע בפעילים ובכך למנוע את הנוכחות היהודית היחידה הקבועה במקום.
+צו השעה הוא הקמת נקודת התיישבות קבועה בהר, אחרת אנו עלולים לאבד לגמרי את השליטה ברכס האסטרטגי", הוסיפו בפורום.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98371</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>הצלה יו"ש ללא גבולות : ערבים מסינג'יל יידו אבנים ו 2 בקת"בים לעבר רכבים בציר גישה למעלה לבונה בנס אין נפגעים</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>98235</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>עשרות מחבלים ערבים שרפו לפני זמן קצר את קבר יהושע בן נון,  בכפר כיפל חארס,  בעקבות כניסת יהודים עוד זמן קצר.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>98229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
